--- a/nist800171Rev2/Customer Reponsiblity Matrix - NIST 800-171.xlsx
+++ b/nist800171Rev2/Customer Reponsiblity Matrix - NIST 800-171.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/vandyr_microsoft_com/Documents/NIST-800-171/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{59541D4B-620D-4975-9EEA-F61805175C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13BE820A-18C0-49FB-A077-E24ECD86E5C7}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{59541D4B-620D-4975-9EEA-F61805175C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{915A43D6-A6F5-4B70-924E-A55D189AC9F9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2295" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -1919,7 +1919,7 @@
     <t>Perform Test On:</t>
   </si>
   <si>
-    <t>NIST Handbook 162</t>
+    <t>Download - NIST Handbook 162</t>
   </si>
 </sst>
 </file>
@@ -2857,21 +2857,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="36" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="38" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2911,11 +2896,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="36" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3532,10 +3532,10 @@
   <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:N2"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,44 +3558,44 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="61" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="56" t="s">
         <v>579</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="57">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="72">
         <f>AVERAGE(D4,D27,D31,D41,D51,D63,D67,D74,D84,D87,D94,D98,D103,D120)</f>
         <v>0.57158119658119655</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3628,18 +3628,18 @@
       <c r="J3" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="53" t="s">
         <v>575</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="38"/>
       <c r="D4" s="18">
         <f>((COUNTIF($D$5:$D$26,"Y*"))/(COUNTA($D$5:$D$26)-(COUNTIF($D$5:$D$26,"*N/A*"))))</f>
@@ -4307,10 +4307,10 @@
       <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="39"/>
       <c r="D27" s="21">
         <f>((COUNTIF($D$28:$D$30,"Y*"))/(COUNTA($D$28:$D$30)-(COUNTIF($D$28:$D$30,"*N/A*"))))</f>
@@ -4409,10 +4409,10 @@
       <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="39"/>
       <c r="D31" s="21">
         <f>((COUNTIF($D$32:$D$40,"Y*"))/(COUNTA($D$32:$D$40)-(COUNTIF($D$32:$D$40,"*N/A*"))))</f>
@@ -4732,10 +4732,10 @@
       <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="39"/>
       <c r="D41" s="21">
         <f>((COUNTIF($D$42:$D$50,"Y*"))/(COUNTA($D$42:$D$50)-(COUNTIF($D$42:$D$50,"*N/A*"))))</f>
@@ -5059,10 +5059,10 @@
       <c r="N50" s="28"/>
     </row>
     <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="39"/>
       <c r="D51" s="21">
         <f>((COUNTIF($D$52:$D$62,"Y*"))/(COUNTA($D$52:$D$62)-(COUNTIF($D$52:$D$62,"*N/A*"))))</f>
@@ -5428,10 +5428,10 @@
       <c r="N62" s="28"/>
     </row>
     <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="39"/>
       <c r="D63" s="21">
         <f>((COUNTIF($D$64:$D$66,"Y*"))/(COUNTA($D$64:$D$66)-(COUNTIF($D$64:$D$66,"*N/A*"))))</f>
@@ -5518,10 +5518,10 @@
       <c r="N66" s="28"/>
     </row>
     <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="54"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="39"/>
       <c r="D67" s="21" t="s">
         <v>341</v>
@@ -5706,10 +5706,10 @@
       <c r="N73" s="28"/>
     </row>
     <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="B74" s="54"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="39"/>
       <c r="D74" s="21">
         <f>((COUNTIF($D$75:$D$83,"Y*"))/(COUNTA($D$75:$D$83)-(COUNTIF($D$75:$D$83,"*N/A*"))))</f>
@@ -5967,10 +5967,10 @@
       <c r="N83" s="28"/>
     </row>
     <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="54"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="39"/>
       <c r="D84" s="21">
         <f>((COUNTIF($D$85:$D$86,"Y*"))/(COUNTA($D$85:$D$86)-(COUNTIF($D$85:$D$86,"*N/A*"))))</f>
@@ -6034,10 +6034,10 @@
       <c r="N86" s="28"/>
     </row>
     <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="B87" s="54"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="39"/>
       <c r="D87" s="21">
         <f>((COUNTIF($D$88:$D$93,"Y*"))/(COUNTA($D$88:$D$93)-(COUNTIF($D$88:$D$93,"*N/A*"))))</f>
@@ -6209,10 +6209,10 @@
       <c r="N93" s="28"/>
     </row>
     <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="39"/>
       <c r="D94" s="21">
         <f>((COUNTIF($D$95:$D$97,"Y*"))/(COUNTA($D$95:$D$97)-(COUNTIF($D$95:$D$97,"*N/A*"))))</f>
@@ -6311,10 +6311,10 @@
       <c r="N97" s="28"/>
     </row>
     <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="B98" s="54"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="39"/>
       <c r="D98" s="21">
         <f>((COUNTIF($D$99:$D$102,"Y*"))/(COUNTA($D$99:$D$102)-(COUNTIF($D$99:$D$102,"*N/A*"))))</f>
@@ -6424,10 +6424,10 @@
       <c r="N102" s="28"/>
     </row>
     <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="39"/>
       <c r="D103" s="21">
         <f>((COUNTIF($D$104:$D$119,"Y*"))/(COUNTA($D$104:$D$119)-(COUNTIF($D$104:$D$119,"*N/A*"))))</f>
@@ -6949,10 +6949,10 @@
       <c r="N119" s="28"/>
     </row>
     <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="B120" s="54"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="39"/>
       <c r="D120" s="21">
         <f>((COUNTIF($D$121:$D$127,"Y*"))/(COUNTA($D$121:$D$127)-(COUNTIF($D$121:$D$127,"*N/A*"))))</f>
@@ -7258,6 +7258,13 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="23">
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="K1:N2"/>
     <mergeCell ref="B1:C2"/>
@@ -7274,13 +7281,6 @@
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J109" r:id="rId1" xr:uid="{8BD4F224-F6E7-4DE7-9497-A7C58D307887}"/>
@@ -7361,6 +7361,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="461c8434-5005-4659-8b6a-95f8f3e23578" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003581C16C1196D34397009D53BCBC9C4F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f38ce1227b7de9c8cfda61d4f6e06974">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="461c8434-5005-4659-8b6a-95f8f3e23578" xmlns:ns3="7c6be6fe-adb0-4f66-929b-f3291bcfe06b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d38f9b37d06dd0f8f37bada51e9ebec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7606,26 +7625,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22CF8932-C8EE-4ACA-A928-437C7B0CA280}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="461c8434-5005-4659-8b6a-95f8f3e23578"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7c6be6fe-adb0-4f66-929b-f3291bcfe06b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="461c8434-5005-4659-8b6a-95f8f3e23578" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0038A27A-54A4-446D-AA9F-CAAD19FDC4D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32B08B1D-51BF-4021-9A02-F507D682AD8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7643,30 +7669,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0038A27A-54A4-446D-AA9F-CAAD19FDC4D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22CF8932-C8EE-4ACA-A928-437C7B0CA280}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="461c8434-5005-4659-8b6a-95f8f3e23578"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7c6be6fe-adb0-4f66-929b-f3291bcfe06b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>